--- a/180220_最新版.xlsx
+++ b/180220_最新版.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="112">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -12165,8 +12165,8 @@
   <dimension ref="B1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12208,19 +12208,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" ht="19.5" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B3" s="15">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>104</v>
@@ -12232,49 +12232,59 @@
         <v>43147</v>
       </c>
     </row>
-    <row r="4" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="17">
-        <v>2</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="7"/>
+    <row r="4" spans="2:9" ht="19.5" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="15">
+        <v>25</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="H4" s="18">
-        <v>0</v>
-      </c>
-      <c r="I4" s="22"/>
+        <v>100</v>
+      </c>
+      <c r="I4" s="28">
+        <v>43147</v>
+      </c>
     </row>
-    <row r="5" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" ht="19.5" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B5" s="15">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="F5" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H5" s="18">
-        <v>0</v>
-      </c>
-      <c r="I5" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="I5" s="28">
+        <v>43147</v>
+      </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B6" s="17">
         <v>4</v>
       </c>
@@ -12298,27 +12308,29 @@
         <v>43144</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B7" s="15">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H7" s="18">
-        <v>0</v>
-      </c>
-      <c r="I7" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="I7" s="28">
+        <v>43144</v>
+      </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="17">
@@ -12344,491 +12356,509 @@
         <v>43144</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B9" s="15">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H9" s="18">
-        <v>0</v>
-      </c>
-      <c r="I9" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="I9" s="28">
+        <v>43144</v>
+      </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="17">
-        <v>8</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="5" t="s">
+      <c r="B10" s="15">
+        <v>49</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>102</v>
       </c>
       <c r="H10" s="18">
-        <v>0</v>
-      </c>
-      <c r="I10" s="22"/>
+        <v>100</v>
+      </c>
+      <c r="I10" s="28">
+        <v>43151</v>
+      </c>
     </row>
     <row r="11" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B11" s="15">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H11" s="18">
         <v>100</v>
       </c>
       <c r="I11" s="28">
-        <v>43147</v>
+        <v>43144</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B12" s="17">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>102</v>
       </c>
       <c r="H12" s="18">
-        <v>0</v>
-      </c>
-      <c r="I12" s="22"/>
+        <v>100</v>
+      </c>
+      <c r="I12" s="29">
+        <v>43144</v>
+      </c>
     </row>
     <row r="13" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B13" s="15">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H13" s="18">
-        <v>0</v>
-      </c>
-      <c r="I13" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="I13" s="28">
+        <v>43147</v>
+      </c>
     </row>
-    <row r="14" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="17">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>102</v>
       </c>
       <c r="H14" s="18">
-        <v>0</v>
-      </c>
-      <c r="I14" s="22"/>
+        <v>100</v>
+      </c>
+      <c r="I14" s="29">
+        <v>43144</v>
+      </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B15" s="15">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>76</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="F15" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>104</v>
       </c>
       <c r="H15" s="18">
-        <v>0</v>
-      </c>
-      <c r="I15" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="I15" s="28">
+        <v>43151</v>
+      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="17">
-        <v>14</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="5" t="s">
+      <c r="B16" s="15">
+        <v>57</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>104</v>
+      <c r="G16" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="H16" s="18">
         <v>100</v>
       </c>
-      <c r="I16" s="29">
-        <v>43147</v>
+      <c r="I16" s="28">
+        <v>43151</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B17" s="15">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>78</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>109</v>
+      </c>
       <c r="F17" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>104</v>
       </c>
       <c r="H17" s="18">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I17" s="28">
-        <v>43147</v>
+        <v>43148</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" s="17">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H18" s="18">
         <v>100</v>
       </c>
       <c r="I18" s="29">
-        <v>43147</v>
+        <v>43151</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="15">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H19" s="18">
-        <v>0</v>
-      </c>
-      <c r="I19" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="I19" s="28">
+        <v>43144</v>
+      </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="17">
-        <v>18</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="5" t="s">
+      <c r="B20" s="15">
+        <v>5</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>104</v>
+      <c r="G20" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="H20" s="18">
         <v>0</v>
       </c>
-      <c r="I20" s="22"/>
+      <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="15">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H21" s="18">
         <v>0</v>
       </c>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="17">
-        <v>20</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>104</v>
+    <row r="22" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="15">
+        <v>51</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="H22" s="18">
         <v>100</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="28">
         <v>43147</v>
       </c>
     </row>
-    <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="15">
-        <v>21</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>104</v>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B23" s="17">
+        <v>8</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="H23" s="18">
         <v>0</v>
       </c>
-      <c r="I23" s="20"/>
+      <c r="I23" s="22"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="17">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H24" s="18">
         <v>0</v>
       </c>
       <c r="I24" s="22"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="15">
-        <v>23</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="4" t="s">
+    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="17">
+        <v>56</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="18">
+        <v>100</v>
+      </c>
+      <c r="I25" s="29">
+        <v>43151</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B26" s="15">
+        <v>53</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H25" s="18">
-        <v>0</v>
-      </c>
-      <c r="I25" s="20"/>
-    </row>
-    <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="17">
-        <v>24</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>104</v>
+      <c r="G26" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="H26" s="18">
         <v>0</v>
       </c>
-      <c r="I26" s="22"/>
+      <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B27" s="15">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D27" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" s="18">
+        <v>0</v>
+      </c>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B28" s="17">
         <v>60</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H27" s="18">
-        <v>100</v>
-      </c>
-      <c r="I27" s="28">
-        <v>43147</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="17">
-        <v>26</v>
-      </c>
       <c r="C28" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H28" s="18">
         <v>0</v>
       </c>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B29" s="15">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>104</v>
       </c>
       <c r="H29" s="18">
-        <v>0</v>
-      </c>
-      <c r="I29" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="I29" s="28">
+        <v>43147</v>
+      </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" s="17">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="5" t="s">
@@ -12838,89 +12868,95 @@
         <v>104</v>
       </c>
       <c r="H30" s="18">
-        <v>0</v>
-      </c>
-      <c r="I30" s="22"/>
+        <v>100</v>
+      </c>
+      <c r="I30" s="29">
+        <v>43147</v>
+      </c>
     </row>
-    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="15">
-        <v>29</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="6" t="s">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B31" s="17">
+        <v>16</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H31" s="18">
-        <v>0</v>
-      </c>
-      <c r="I31" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="I31" s="29">
+        <v>43147</v>
+      </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B32" s="17">
-        <v>30</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="7" t="s">
+    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="15">
+        <v>65</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>104</v>
       </c>
       <c r="H32" s="18">
-        <v>0</v>
-      </c>
-      <c r="I32" s="22"/>
+        <v>100</v>
+      </c>
+      <c r="I32" s="28">
+        <v>43148</v>
+      </c>
     </row>
     <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="15">
-        <v>31</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F33" s="4" t="s">
+      <c r="B33" s="17">
+        <v>66</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H33" s="18">
         <v>100</v>
       </c>
-      <c r="I33" s="28">
+      <c r="I33" s="29">
         <v>43147</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B34" s="17">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="5" t="s">
@@ -12933,34 +12969,42 @@
         <v>100</v>
       </c>
       <c r="I34" s="29">
-        <v>43148</v>
+        <v>43151</v>
       </c>
     </row>
-    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="15">
-        <v>33</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="6"/>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B35" s="17">
+        <v>20</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="H35" s="18">
-        <v>0</v>
-      </c>
-      <c r="I35" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="I35" s="29">
+        <v>43147</v>
+      </c>
     </row>
     <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B36" s="17">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="5" t="s">
@@ -12974,37 +13018,35 @@
     </row>
     <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B37" s="15">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H37" s="18">
-        <v>100</v>
-      </c>
-      <c r="I37" s="28">
-        <v>43144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" s="20"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B38" s="17">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="5" t="s">
@@ -13017,42 +13059,42 @@
         <v>100</v>
       </c>
       <c r="I38" s="29">
-        <v>43147</v>
+        <v>43151</v>
       </c>
     </row>
-    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="15">
-        <v>37</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>103</v>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B39" s="17">
+        <v>30</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="H39" s="18">
         <v>100</v>
       </c>
-      <c r="I39" s="28">
-        <v>43144</v>
+      <c r="I39" s="29">
+        <v>43151</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B40" s="17">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="5" t="s">
@@ -13062,190 +13104,188 @@
         <v>104</v>
       </c>
       <c r="H40" s="18">
-        <v>0</v>
-      </c>
-      <c r="I40" s="22"/>
+        <v>100</v>
+      </c>
+      <c r="I40" s="29">
+        <v>43148</v>
+      </c>
     </row>
-    <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="15">
-        <v>39</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>102</v>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B41" s="17">
+        <v>36</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="H41" s="18">
         <v>100</v>
       </c>
-      <c r="I41" s="28">
-        <v>43144</v>
+      <c r="I41" s="29">
+        <v>43147</v>
       </c>
     </row>
-    <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B42" s="17">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H42" s="18">
         <v>100</v>
       </c>
       <c r="I42" s="29">
-        <v>43144</v>
+        <v>43151</v>
       </c>
     </row>
-    <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B43" s="15">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H43" s="18">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I43" s="28">
         <v>43147</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B44" s="17">
-        <v>42</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G44" s="7" t="s">
+    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="15">
+        <v>11</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>104</v>
       </c>
       <c r="H44" s="18">
         <v>0</v>
       </c>
-      <c r="I44" s="22"/>
+      <c r="I44" s="20"/>
     </row>
     <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="15">
-        <v>43</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="6"/>
+      <c r="B45" s="17">
+        <v>12</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="H45" s="18">
         <v>0</v>
       </c>
-      <c r="I45" s="20"/>
+      <c r="I45" s="22"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B46" s="17">
-        <v>44</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="5" t="s">
+      <c r="B46" s="15">
+        <v>13</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="6" t="s">
         <v>104</v>
       </c>
       <c r="H46" s="18">
         <v>0</v>
       </c>
-      <c r="I46" s="22"/>
+      <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B47" s="15">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>109</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E47" s="8"/>
       <c r="F47" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>104</v>
       </c>
       <c r="H47" s="18">
-        <v>100</v>
-      </c>
-      <c r="I47" s="28">
-        <v>43148</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" s="20"/>
     </row>
-    <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B48" s="17">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H48" s="18">
         <v>0</v>
@@ -13254,13 +13294,13 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B49" s="15">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="4" t="s">
@@ -13276,218 +13316,226 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B50" s="17">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E50" s="10"/>
       <c r="F50" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G50" s="7"/>
+      <c r="G50" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="H50" s="18">
         <v>0</v>
       </c>
       <c r="I50" s="22"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B51" s="15">
-        <v>49</v>
-      </c>
-      <c r="C51" s="13" t="s">
+      <c r="B51" s="17">
+        <v>44</v>
+      </c>
+      <c r="C51" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="4" t="s">
+      <c r="D51" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G51" s="6" t="s">
-        <v>102</v>
+      <c r="G51" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="H51" s="18">
         <v>0</v>
       </c>
-      <c r="I51" s="20"/>
+      <c r="I51" s="22"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B52" s="17">
-        <v>50</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="7"/>
+    <row r="52" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="15">
+        <v>19</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="H52" s="18">
         <v>0</v>
       </c>
-      <c r="I52" s="22"/>
+      <c r="I52" s="20"/>
     </row>
-    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B53" s="15">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H53" s="18">
         <v>100</v>
       </c>
       <c r="I53" s="28">
-        <v>43147</v>
+        <v>43151</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B54" s="17">
-        <v>52</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>102</v>
+    <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="15">
+        <v>21</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="H54" s="18">
-        <v>100</v>
-      </c>
-      <c r="I54" s="29">
-        <v>43144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" s="20"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B55" s="15">
-        <v>53</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="4" t="s">
+      <c r="B55" s="17">
+        <v>48</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G55" s="6" t="s">
-        <v>102</v>
+      <c r="G55" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="H55" s="18">
-        <v>0</v>
-      </c>
-      <c r="I55" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="I55" s="29">
+        <v>43151</v>
+      </c>
     </row>
-    <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B56" s="17">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H56" s="18">
-        <v>0</v>
-      </c>
-      <c r="I56" s="22"/>
+        <v>100</v>
+      </c>
+      <c r="I56" s="29">
+        <v>43151</v>
+      </c>
     </row>
     <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="15">
-        <v>55</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="4" t="s">
+      <c r="B57" s="17">
+        <v>24</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G57" s="6" t="s">
-        <v>102</v>
+      <c r="G57" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="H57" s="18">
         <v>0</v>
       </c>
-      <c r="I57" s="20"/>
+      <c r="I57" s="22"/>
     </row>
     <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B58" s="17">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G58" s="7"/>
+      <c r="G58" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="H58" s="18">
         <v>0</v>
       </c>
       <c r="I58" s="22"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B59" s="15">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H59" s="18">
         <v>0</v>
@@ -13495,202 +13543,188 @@
       <c r="I59" s="20"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B60" s="17">
-        <v>58</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>102</v>
+      <c r="B60" s="15">
+        <v>63</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="H60" s="18">
         <v>0</v>
       </c>
-      <c r="I60" s="22"/>
+      <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B61" s="15">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H61" s="18">
         <v>0</v>
       </c>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B62" s="17">
-        <v>60</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>102</v>
-      </c>
+    <row r="62" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="15">
+        <v>33</v>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="6"/>
       <c r="H62" s="18">
         <v>0</v>
       </c>
-      <c r="I62" s="22"/>
+      <c r="I62" s="20"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B63" s="15">
-        <v>61</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>102</v>
-      </c>
+    <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="17">
+        <v>34</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E63" s="10"/>
+      <c r="F63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" s="7"/>
       <c r="H63" s="18">
-        <v>100</v>
-      </c>
-      <c r="I63" s="28">
-        <v>43144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" s="22"/>
     </row>
     <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B64" s="17">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G64" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="H64" s="18">
         <v>0</v>
       </c>
       <c r="I64" s="22"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B65" s="15">
-        <v>63</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G65" s="6"/>
+    <row r="65" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="17">
+        <v>54</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" s="10"/>
+      <c r="F65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="H65" s="18">
         <v>0</v>
       </c>
-      <c r="I65" s="20"/>
+      <c r="I65" s="22"/>
     </row>
     <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="17">
-        <v>64</v>
-      </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66" s="7"/>
+      <c r="B66" s="15">
+        <v>55</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="H66" s="18">
         <v>0</v>
       </c>
-      <c r="I66" s="22"/>
+      <c r="I66" s="20"/>
     </row>
     <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="15">
-        <v>65</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>104</v>
-      </c>
+      <c r="B67" s="17">
+        <v>62</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E67" s="10"/>
+      <c r="F67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="7"/>
       <c r="H67" s="18">
-        <v>100</v>
-      </c>
-      <c r="I67" s="28">
-        <v>43148</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" s="22"/>
     </row>
     <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B68" s="17">
-        <v>66</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>101</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C68" s="14"/>
+      <c r="D68" s="11"/>
       <c r="E68" s="10"/>
       <c r="F68" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>104</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G68" s="7"/>
       <c r="H68" s="18">
-        <v>100</v>
-      </c>
-      <c r="I68" s="29">
-        <v>43147</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" s="22"/>
     </row>
     <row r="69" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B69" s="15">
@@ -14227,6 +14261,9 @@
         <filter val="A"/>
       </filters>
     </filterColumn>
+    <sortState ref="B6:I60">
+      <sortCondition ref="G2:G101"/>
+    </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F57">

--- a/180220_最新版.xlsx
+++ b/180220_最新版.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yajima Tomoyuki\Documents\newTeam_03_Project_02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\G015A1288\3rdSecondSemester\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -12164,9 +12164,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12284,7 +12284,7 @@
         <v>43147</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:9" ht="19.5" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B6" s="17">
         <v>4</v>
       </c>
@@ -12308,7 +12308,7 @@
         <v>43144</v>
       </c>
     </row>
-    <row r="7" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:9" ht="19.5" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="15">
         <v>35</v>
       </c>
@@ -12332,7 +12332,7 @@
         <v>43144</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:9" ht="19.5" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B8" s="17">
         <v>6</v>
       </c>
@@ -12356,7 +12356,7 @@
         <v>43144</v>
       </c>
     </row>
-    <row r="9" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:9" ht="19.5" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B9" s="15">
         <v>37</v>
       </c>
@@ -12380,7 +12380,7 @@
         <v>43144</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:9" ht="19.5" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B10" s="15">
         <v>49</v>
       </c>
@@ -12404,7 +12404,7 @@
         <v>43151</v>
       </c>
     </row>
-    <row r="11" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:9" ht="19.5" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B11" s="15">
         <v>39</v>
       </c>
@@ -12428,7 +12428,7 @@
         <v>43144</v>
       </c>
     </row>
-    <row r="12" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:9" ht="19.5" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="17">
         <v>40</v>
       </c>
@@ -12452,7 +12452,7 @@
         <v>43144</v>
       </c>
     </row>
-    <row r="13" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:9" ht="19.5" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B13" s="15">
         <v>41</v>
       </c>
@@ -12476,7 +12476,7 @@
         <v>43147</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:9" ht="19.5" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B14" s="17">
         <v>52</v>
       </c>
@@ -12500,7 +12500,7 @@
         <v>43144</v>
       </c>
     </row>
-    <row r="15" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:9" ht="19.5" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B15" s="15">
         <v>43</v>
       </c>
@@ -12526,7 +12526,7 @@
         <v>43151</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:9" ht="19.5" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B16" s="15">
         <v>57</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>43151</v>
       </c>
     </row>
-    <row r="17" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:9" ht="19.5" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="15">
         <v>45</v>
       </c>
@@ -12576,7 +12576,7 @@
         <v>43148</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:9" ht="19.5" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B18" s="17">
         <v>58</v>
       </c>
@@ -12600,7 +12600,7 @@
         <v>43151</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:9" ht="19.5" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B19" s="15">
         <v>61</v>
       </c>
@@ -12624,7 +12624,7 @@
         <v>43144</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B20" s="15">
         <v>5</v>
       </c>
@@ -12642,7 +12642,7 @@
         <v>102</v>
       </c>
       <c r="H20" s="18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="20"/>
     </row>
@@ -12710,7 +12710,7 @@
         <v>102</v>
       </c>
       <c r="H23" s="18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I23" s="22"/>
     </row>
@@ -12732,7 +12732,7 @@
         <v>102</v>
       </c>
       <c r="H24" s="18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="22"/>
     </row>
@@ -12800,7 +12800,7 @@
         <v>102</v>
       </c>
       <c r="H27" s="18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I27" s="20"/>
     </row>
@@ -12822,11 +12822,11 @@
         <v>102</v>
       </c>
       <c r="H28" s="18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B29" s="15">
         <v>1</v>
       </c>
@@ -12850,7 +12850,7 @@
         <v>43147</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B30" s="17">
         <v>14</v>
       </c>
@@ -12874,7 +12874,7 @@
         <v>43147</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B31" s="17">
         <v>16</v>
       </c>
@@ -12948,7 +12948,7 @@
         <v>43147</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="17">
         <v>18</v>
       </c>
@@ -12972,7 +12972,7 @@
         <v>43151</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B35" s="17">
         <v>20</v>
       </c>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B37" s="15">
         <v>3</v>
       </c>
@@ -13034,11 +13034,11 @@
         <v>102</v>
       </c>
       <c r="H37" s="18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="17">
         <v>28</v>
       </c>
@@ -13062,7 +13062,7 @@
         <v>43151</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B39" s="17">
         <v>30</v>
       </c>
@@ -13086,7 +13086,7 @@
         <v>43151</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B40" s="17">
         <v>32</v>
       </c>
@@ -13110,7 +13110,7 @@
         <v>43148</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B41" s="17">
         <v>36</v>
       </c>
@@ -13134,7 +13134,7 @@
         <v>43147</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B42" s="17">
         <v>38</v>
       </c>
@@ -13158,7 +13158,7 @@
         <v>43151</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B43" s="15">
         <v>15</v>
       </c>
@@ -13204,7 +13204,7 @@
       </c>
       <c r="I44" s="20"/>
     </row>
-    <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B45" s="17">
         <v>12</v>
       </c>
@@ -13226,7 +13226,7 @@
       </c>
       <c r="I45" s="22"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B46" s="15">
         <v>13</v>
       </c>
@@ -13248,7 +13248,7 @@
       </c>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B47" s="15">
         <v>17</v>
       </c>
@@ -13270,7 +13270,7 @@
       </c>
       <c r="I47" s="20"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B48" s="17">
         <v>22</v>
       </c>
@@ -13292,7 +13292,7 @@
       </c>
       <c r="I48" s="22"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B49" s="15">
         <v>23</v>
       </c>
@@ -13314,7 +13314,7 @@
       </c>
       <c r="I49" s="20"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B50" s="17">
         <v>42</v>
       </c>
@@ -13336,7 +13336,7 @@
       </c>
       <c r="I50" s="22"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B51" s="17">
         <v>44</v>
       </c>
@@ -13380,7 +13380,7 @@
       </c>
       <c r="I52" s="20"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B53" s="15">
         <v>47</v>
       </c>
@@ -13426,7 +13426,7 @@
       </c>
       <c r="I54" s="20"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B55" s="17">
         <v>48</v>
       </c>
@@ -13452,7 +13452,7 @@
         <v>43151</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B56" s="17">
         <v>50</v>
       </c>
@@ -13542,7 +13542,7 @@
       </c>
       <c r="I59" s="20"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B60" s="15">
         <v>63</v>
       </c>
@@ -13624,7 +13624,7 @@
       </c>
       <c r="I63" s="22"/>
     </row>
-    <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B64" s="17">
         <v>46</v>
       </c>
@@ -13642,7 +13642,7 @@
         <v>102</v>
       </c>
       <c r="H64" s="18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I64" s="22"/>
     </row>
@@ -13668,7 +13668,7 @@
       </c>
       <c r="I65" s="22"/>
     </row>
-    <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B66" s="15">
         <v>55</v>
       </c>
@@ -13686,7 +13686,7 @@
         <v>102</v>
       </c>
       <c r="H66" s="18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I66" s="20"/>
     </row>
@@ -14256,9 +14256,14 @@
     </row>
   </sheetData>
   <autoFilter ref="B2:I101">
-    <filterColumn colId="4">
+    <filterColumn colId="5">
       <filters>
-        <filter val="A"/>
+        <filter val="石"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="0"/>
       </filters>
     </filterColumn>
     <sortState ref="B6:I60">

--- a/180220_最新版.xlsx
+++ b/180220_最新版.xlsx
@@ -12164,9 +12164,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H102" sqref="H102"/>
+      <selection pane="bottomLeft" activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12644,7 +12644,9 @@
       <c r="H20" s="18">
         <v>100</v>
       </c>
-      <c r="I20" s="20"/>
+      <c r="I20" s="28">
+        <v>43153</v>
+      </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="15">
@@ -12712,7 +12714,9 @@
       <c r="H23" s="18">
         <v>100</v>
       </c>
-      <c r="I23" s="22"/>
+      <c r="I23" s="28">
+        <v>43153</v>
+      </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="17">
@@ -12734,7 +12738,9 @@
       <c r="H24" s="18">
         <v>100</v>
       </c>
-      <c r="I24" s="22"/>
+      <c r="I24" s="28">
+        <v>43153</v>
+      </c>
     </row>
     <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B25" s="17">
@@ -12802,7 +12808,9 @@
       <c r="H27" s="18">
         <v>100</v>
       </c>
-      <c r="I27" s="20"/>
+      <c r="I27" s="28">
+        <v>43153</v>
+      </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B28" s="17">
@@ -12824,7 +12832,9 @@
       <c r="H28" s="18">
         <v>100</v>
       </c>
-      <c r="I28" s="22"/>
+      <c r="I28" s="28">
+        <v>43153</v>
+      </c>
     </row>
     <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B29" s="15">
@@ -13036,7 +13046,9 @@
       <c r="H37" s="18">
         <v>100</v>
       </c>
-      <c r="I37" s="20"/>
+      <c r="I37" s="28">
+        <v>43153</v>
+      </c>
     </row>
     <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="17">
@@ -13644,7 +13656,9 @@
       <c r="H64" s="18">
         <v>100</v>
       </c>
-      <c r="I64" s="22"/>
+      <c r="I64" s="28">
+        <v>43153</v>
+      </c>
     </row>
     <row r="65" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B65" s="17">
@@ -13688,7 +13702,9 @@
       <c r="H66" s="18">
         <v>100</v>
       </c>
-      <c r="I66" s="20"/>
+      <c r="I66" s="28">
+        <v>43153</v>
+      </c>
     </row>
     <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B67" s="17">
